--- a/data/trans_orig/IP16B05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD71248F-1859-40B7-9CC4-5A46CF2B0051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED500FFA-3AF9-4D44-A62C-770BDA91823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{1D4A005A-A1F0-4F45-8F85-46C17916E818}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F8D8415C-F262-4ABC-B664-74DB57B49002}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -106,48 +106,48 @@
     <t>87,39%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
     <t>8,27%</t>
   </si>
   <si>
@@ -193,48 +193,48 @@
     <t>93,85%</t>
   </si>
   <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
     <t>3,29%</t>
   </si>
   <si>
@@ -274,16 +274,16 @@
     <t>93,43%</t>
   </si>
   <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
+    <t>76,75%</t>
+  </si>
+  <si>
     <t>69,43%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -687,7 +687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1458003A-D88B-46B3-8A3F-97303D3C1271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FF07BE-7287-4D00-A4F4-410475863105}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -972,37 +972,37 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1011,16 +1011,16 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>4023</v>
+        <v>6454</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -1029,31 +1029,31 @@
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2639</v>
+        <v>2755</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N8" s="7">
-        <v>6662</v>
+        <v>9209</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1062,10 +1062,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>4023</v>
+        <v>6454</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1077,10 +1077,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>2639</v>
+        <v>3397</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1092,10 +1092,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N9" s="7">
-        <v>6662</v>
+        <v>9851</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1127,37 +1127,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1166,16 +1166,16 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>6454</v>
+        <v>4023</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1184,31 +1184,31 @@
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>2755</v>
+        <v>2639</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>9209</v>
+        <v>6662</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1217,40 +1217,40 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4023</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2639</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
-        <v>6454</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3397</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7">
-        <v>15</v>
-      </c>
       <c r="N12" s="7">
-        <v>9851</v>
+        <v>6662</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1433,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689F569E-593C-4ABD-A033-0ECB3E769A4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2375A9CE-1FEC-480A-987B-8DB18496155B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1706,19 +1706,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,49 +1757,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>2372</v>
+        <v>7591</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>6469</v>
+        <v>9208</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N8" s="7">
-        <v>8841</v>
+        <v>16799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,10 +1808,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>2372</v>
+        <v>8264</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1823,10 +1823,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7">
-        <v>6469</v>
+        <v>9208</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1838,10 +1838,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N9" s="7">
-        <v>8841</v>
+        <v>17472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1855,25 +1855,25 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>673</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,49 +1912,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>7591</v>
+        <v>2372</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>9208</v>
+        <v>6469</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N11" s="7">
-        <v>16799</v>
+        <v>8841</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,10 +1963,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>8264</v>
+        <v>2372</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1978,10 +1978,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>9208</v>
+        <v>6469</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1993,10 +1993,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="N12" s="7">
-        <v>17472</v>
+        <v>8841</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2179,7 +2179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F20E54-F83F-48FD-809F-DB51C4568888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F0A1BE-C97A-4292-B2ED-2D78FF6E4CB8}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2357,7 +2357,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2479,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,46 +2503,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5344</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
-        <v>3657</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
       <c r="I8" s="7">
-        <v>2191</v>
+        <v>2860</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>5849</v>
+        <v>8204</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2554,25 +2554,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>5344</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="7">
-        <v>3657</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>3</v>
-      </c>
       <c r="I9" s="7">
-        <v>2191</v>
+        <v>2860</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2584,10 +2584,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N9" s="7">
-        <v>5849</v>
+        <v>8204</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2619,7 +2619,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,10 +2658,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>5344</v>
+        <v>3657</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2673,31 +2673,31 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>2860</v>
+        <v>2191</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>8204</v>
+        <v>5849</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2709,10 +2709,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>5344</v>
+        <v>3657</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2724,10 +2724,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2860</v>
+        <v>2191</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2739,10 +2739,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>8204</v>
+        <v>5849</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/IP16B05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED500FFA-3AF9-4D44-A62C-770BDA91823F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50AB40A5-6363-430F-B27A-F84D52BB6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F8D8415C-F262-4ABC-B664-74DB57B49002}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE1E7571-A1B6-4424-A8A2-C50B8322D8AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="92">
   <si>
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2007 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -67,7 +67,25 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>No</t>
@@ -79,223 +97,223 @@
     <t>0%</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>20,75%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos recetados por el médico en 2012 (Tasa respuesta: 3,1%)</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos recetados por el médico en 2012 (Tasa respuesta: 3,1%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos recetados por el médico en 2015 (Tasa respuesta: 2,26%)</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos recetados por el médico en 2015 (Tasa respuesta: 2,26%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
     <t>3,9%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
   </si>
 </sst>
 </file>
@@ -306,7 +324,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -402,39 +420,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -486,7 +504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -597,13 +615,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -612,6 +623,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -676,19 +694,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FF07BE-7287-4D00-A4F4-410475863105}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A35A49-8615-42B3-9C0C-41BB766843BB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -805,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3532</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -820,34 +858,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1756</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5288</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -856,10 +894,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>4205</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -871,34 +909,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>5119</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>9324</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -907,49 +945,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>4205</v>
+        <v>3532</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1756</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="7">
         <v>8</v>
       </c>
-      <c r="I6" s="7">
-        <v>5119</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
-        <v>14</v>
-      </c>
       <c r="N6" s="7">
-        <v>9324</v>
+        <v>5288</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -960,49 +998,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>7127</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>642</v>
+        <v>5476</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>642</v>
+        <v>12603</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1011,49 +1049,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>2755</v>
+        <v>642</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>9209</v>
+        <v>642</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1062,49 +1100,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7">
-        <v>6454</v>
+        <v>7127</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>3397</v>
+        <v>6118</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N9" s="7">
-        <v>9851</v>
+        <v>13245</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1115,49 +1153,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2751</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>4047</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1166,10 +1204,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>4023</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1178,37 +1216,37 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2639</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>6662</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1217,102 +1255,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2751</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1296</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="7">
-        <v>4023</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7">
-        <v>2639</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7">
-        <v>10</v>
-      </c>
       <c r="N12" s="7">
-        <v>6662</v>
+        <v>4047</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1985</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3257</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>642</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>642</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1321,49 +1359,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>14682</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <v>16</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10513</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="7">
-        <v>38</v>
-      </c>
-      <c r="N14" s="7">
-        <v>25195</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1372,55 +1410,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1272</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1985</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>5</v>
+      </c>
+      <c r="N15" s="7">
+        <v>3257</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>22</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>14682</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>17</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7">
+        <v>10513</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>38</v>
+      </c>
+      <c r="N16" s="7">
+        <v>25195</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>642</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>642</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7">
+        <v>14682</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
+        <v>17</v>
+      </c>
+      <c r="I18" s="7">
         <v>11155</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>39</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>25837</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1433,8 +1632,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2375A9CE-1FEC-480A-987B-8DB18496155B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01265870-A913-4C62-8766-49915B454804}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1450,7 +1649,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1551,49 +1750,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4865</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6520</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>11385</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,49 +1801,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>9828</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>10698</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M5" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>20526</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,49 +1852,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7">
-        <v>9828</v>
+        <v>4865</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>10698</v>
+        <v>6520</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N6" s="7">
-        <v>20526</v>
+        <v>11385</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,49 +1905,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>11055</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>10538</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>673</v>
+        <v>21593</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,49 +1956,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>7591</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>9208</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>16799</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,49 +2007,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7">
-        <v>8264</v>
+        <v>11055</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>9208</v>
+        <v>10538</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>17472</v>
+        <v>21593</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,49 +2060,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2596</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>5038</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>7635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,49 +2111,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>2372</v>
+        <v>673</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>6469</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>8841</v>
+        <v>673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,102 +2162,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>2372</v>
+        <v>3269</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>6469</v>
+        <v>5038</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>8841</v>
+        <v>8308</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>673</v>
+        <v>1275</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>4278</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>673</v>
+        <v>5553</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,49 +2266,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>19792</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H14" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>26375</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>46167</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,55 +2317,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1275</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>6</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4278</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>8</v>
+      </c>
+      <c r="N15" s="7">
+        <v>5553</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7">
+        <v>19792</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>37</v>
+      </c>
+      <c r="I16" s="7">
+        <v>26375</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>64</v>
+      </c>
+      <c r="N16" s="7">
+        <v>46167</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>673</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>673</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>28</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>20465</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>37</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>26375</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
         <v>65</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>46840</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2179,8 +2539,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F0A1BE-C97A-4292-B2ED-2D78FF6E4CB8}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8640B15-D33F-4A81-8FBB-0C09F612BBB1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2196,7 +2556,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2297,49 +2657,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4616</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5359</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9974</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,49 +2708,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>7056</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="7">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9844</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>28</v>
-      </c>
-      <c r="N5" s="7">
-        <v>16900</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,49 +2759,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>7056</v>
+        <v>4616</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>9844</v>
+        <v>5359</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N6" s="7">
-        <v>16900</v>
+        <v>9974</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,49 +2812,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>5367</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>6217</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>11585</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,49 +2863,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>5344</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>2860</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>8204</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,49 +2914,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>5344</v>
+        <v>5367</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>2860</v>
+        <v>6217</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N9" s="7">
-        <v>8204</v>
+        <v>11585</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,49 +2967,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>4561</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>1745</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>6306</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,49 +3018,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>3657</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2191</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>5849</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,102 +3069,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>3657</v>
+        <v>4561</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2191</v>
+        <v>1745</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>5849</v>
+        <v>6306</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1514</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1574</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>3088</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,49 +3173,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>16058</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>14895</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M14" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>30953</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,55 +3224,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1514</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1574</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <v>4</v>
+      </c>
+      <c r="N15" s="7">
+        <v>3088</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
         <v>24</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>16058</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>24</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I16" s="7">
         <v>14895</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
         <v>48</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N16" s="7">
         <v>30953</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7">
+        <v>16058</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7">
+        <v>14895</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="7">
+        <v>48</v>
+      </c>
+      <c r="N18" s="7">
+        <v>30953</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50AB40A5-6363-430F-B27A-F84D52BB6380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE0ED5D-BEE3-4D98-9C14-8177E7F6ECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE1E7571-A1B6-4424-A8A2-C50B8322D8AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{422C5859-F51C-4989-B207-AB63C3FC2C39}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -115,13 +115,13 @@
     <t>89,51%</t>
   </si>
   <si>
-    <t>54,63%</t>
+    <t>55,03%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>70,27%</t>
+    <t>73,85%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -130,13 +130,13 @@
     <t>10,49%</t>
   </si>
   <si>
-    <t>45,37%</t>
+    <t>44,97%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>29,73%</t>
+    <t>26,15%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -169,13 +169,13 @@
     <t>94,25%</t>
   </si>
   <si>
-    <t>76,41%</t>
+    <t>71,17%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>87,26%</t>
+    <t>87,6%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -184,13 +184,13 @@
     <t>5,75%</t>
   </si>
   <si>
-    <t>23,59%</t>
+    <t>28,83%</t>
   </si>
   <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>12,74%</t>
+    <t>12,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -244,7 +244,7 @@
     <t>91,9%</t>
   </si>
   <si>
-    <t>65,43%</t>
+    <t>65,13%</t>
   </si>
   <si>
     <t>20,59%</t>
@@ -256,13 +256,13 @@
     <t>8,1%</t>
   </si>
   <si>
-    <t>34,57%</t>
+    <t>34,87%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>77,16%</t>
+    <t>84,59%</t>
   </si>
   <si>
     <t>94,97%</t>
@@ -271,13 +271,13 @@
     <t>98,56%</t>
   </si>
   <si>
-    <t>91,61%</t>
+    <t>92,2%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>22,84%</t>
+    <t>15,41%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -286,10 +286,10 @@
     <t>1,44%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido antibióticos recetados por el médico en 2015 (Tasa respuesta: 2,26%)</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido antibióticos recetados por el médico en 2016 (Tasa respuesta: 2,26%)</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -725,7 +725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A35A49-8615-42B3-9C0C-41BB766843BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F17501E-FE7F-462A-A299-CB90FABD6688}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01265870-A913-4C62-8766-49915B454804}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58340C8-8675-41B0-862E-450C0EB22E9A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2539,7 +2539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8640B15-D33F-4A81-8FBB-0C09F612BBB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CACD44-024F-47F9-828A-66D8784E84FE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAE0ED5D-BEE3-4D98-9C14-8177E7F6ECA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F00A069-7782-4297-8CC2-3C6A040B14DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{422C5859-F51C-4989-B207-AB63C3FC2C39}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CC4D3A72-FB88-46A5-A81F-359D4FDBF443}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2007 (Tasa respuesta: 1,85%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -76,15 +76,15 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>79,25%</t>
   </si>
   <si>
@@ -97,100 +97,100 @@
     <t>0%</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
     <t>20,75%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>73,85%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>26,15%</t>
+    <t>23,91%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
     <t>73,58%</t>
   </si>
   <si>
+    <t>56,93%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>56,93%</t>
-  </si>
-  <si>
     <t>26,42%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
     <t>91,73%</t>
   </si>
   <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>87,6%</t>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>8,27%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
     <t>2,48%</t>
   </si>
   <si>
-    <t>12,4%</t>
+    <t>11,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -199,39 +199,39 @@
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2012 (Tasa respuesta: 3,1%)</t>
   </si>
   <si>
+    <t>82,92%</t>
+  </si>
+  <si>
     <t>76,75%</t>
   </si>
   <si>
-    <t>82,92%</t>
-  </si>
-  <si>
     <t>89,47%</t>
   </si>
   <si>
+    <t>17,08%</t>
+  </si>
+  <si>
     <t>23,25%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
     <t>10,53%</t>
   </si>
   <si>
+    <t>87,39%</t>
+  </si>
+  <si>
     <t>88,17%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
     <t>93,64%</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
     <t>6,36%</t>
   </si>
   <si>
@@ -244,7 +244,7 @@
     <t>91,9%</t>
   </si>
   <si>
-    <t>65,13%</t>
+    <t>58,85%</t>
   </si>
   <si>
     <t>20,59%</t>
@@ -256,37 +256,37 @@
     <t>8,1%</t>
   </si>
   <si>
-    <t>34,87%</t>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>96,71%</t>
   </si>
   <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>82,9%</t>
   </si>
   <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>92,2%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
+    <t>17,1%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>7,8%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>Menores según si ha consumido antibióticos recetados por el médico en 2016 (Tasa respuesta: 2,26%)</t>
@@ -725,7 +725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F17501E-FE7F-462A-A299-CB90FABD6688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A9A28-5C12-4175-8938-DE3BCEC5973F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -843,10 +843,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>3532</v>
+        <v>1756</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -858,10 +858,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1756</v>
+        <v>3532</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -945,25 +945,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1756</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>3532</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1756</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -998,34 +998,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
+        <v>5476</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7">
         <v>7127</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5476</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -1049,31 +1049,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>30</v>
@@ -1100,25 +1100,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
+        <v>6118</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7">
         <v>7127</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9</v>
-      </c>
-      <c r="I9" s="7">
-        <v>6118</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1153,10 +1153,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2751</v>
+        <v>1296</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -1168,10 +1168,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>1296</v>
+        <v>2751</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -1255,25 +1255,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1296</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>2751</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1296</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1308,31 +1308,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1985</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1272</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1985</v>
-      </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1347,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -1371,7 +1371,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1386,22 +1386,22 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,25 +1410,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1985</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>1272</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1985</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1463,34 +1463,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10513</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
         <v>22</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>14682</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>16</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10513</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -1514,31 +1514,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>642</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>48</v>
@@ -1565,25 +1565,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>11155</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>22</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>14682</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7">
-        <v>11155</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1632,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58340C8-8675-41B0-862E-450C0EB22E9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148C6195-9CA4-4FDA-B331-0D51DE497C18}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1750,10 +1750,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>4865</v>
+        <v>6520</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1765,10 +1765,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>6520</v>
+        <v>4865</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -1852,25 +1852,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6520</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4865</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>10</v>
-      </c>
-      <c r="I6" s="7">
-        <v>6520</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1905,10 +1905,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>11055</v>
+        <v>10538</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
@@ -1920,10 +1920,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>10538</v>
+        <v>11055</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -2007,25 +2007,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10538</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>15</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>11055</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>14</v>
-      </c>
-      <c r="I9" s="7">
-        <v>10538</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2060,34 +2060,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5038</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2596</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5038</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -2111,34 +2111,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>673</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2162,25 +2162,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5038</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>3269</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5038</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2215,31 +2215,31 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4278</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1275</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4278</v>
-      </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2278,7 +2278,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>6</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4278</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="7">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>1275</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="7">
-        <v>6</v>
-      </c>
-      <c r="I15" s="7">
-        <v>4278</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2370,34 +2370,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7">
+        <v>26375</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
         <v>27</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>19792</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>26375</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>75</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>64</v>
@@ -2421,31 +2421,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>673</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="J17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>80</v>
@@ -2472,25 +2472,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7">
+        <v>26375</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
         <v>28</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>20465</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7">
-        <v>37</v>
-      </c>
-      <c r="I18" s="7">
-        <v>26375</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2539,7 +2539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CACD44-024F-47F9-828A-66D8784E84FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC424A6F-D749-4942-9E21-61525D00B7AD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2657,31 +2657,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5359</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>4616</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5359</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2720,22 +2720,22 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2759,25 +2759,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5359</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>4616</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>9</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5359</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2812,31 +2812,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6217</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>5367</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6217</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2875,22 +2875,22 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2914,25 +2914,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6217</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>5367</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>10</v>
-      </c>
-      <c r="I9" s="7">
-        <v>6217</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -2967,31 +2967,31 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1745</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>6</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4561</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1745</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3030,22 +3030,22 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3069,25 +3069,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1745</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>6</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>4561</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1745</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3125,13 +3125,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1514</v>
+        <v>1574</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -3140,13 +3140,13 @@
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1574</v>
+        <v>1514</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3161,7 +3161,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3185,37 +3185,37 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,7 +3227,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="7">
-        <v>1514</v>
+        <v>1574</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3242,7 +3242,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1574</v>
+        <v>1514</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3280,7 +3280,7 @@
         <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>16058</v>
+        <v>14895</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
@@ -3295,7 +3295,7 @@
         <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>14895</v>
+        <v>16058</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -3382,7 +3382,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>16058</v>
+        <v>14895</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3397,7 +3397,7 @@
         <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>14895</v>
+        <v>16058</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
